--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
-    <sheet name="数据修复" sheetId="2" r:id="rId3"/>
+    <sheet name="配置文件（生产环境）" sheetId="4" r:id="rId2"/>
+    <sheet name="BS权限配置" sheetId="3" r:id="rId3"/>
+    <sheet name="数据修复" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -207,13 +208,141 @@
   <si>
     <t>renterpc</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置汇总</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件路径</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.0.3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增一个tomcat，context.xml，sessionCookieDomain一个存放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.mgzf.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，另外一个存放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.mogoroom.com</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网适配两个域名</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,6 +452,19 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -478,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +730,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4299,6 +4474,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="32.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I11">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"开发环境,测试环境,生产环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4503,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>

--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0.3 20161115\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -337,12 +332,24 @@
     <t>史欣欣</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -720,6 +727,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,39 +770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,17 +1124,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1153,7 +1160,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1241,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="H2" s="11">
-        <v>42679</v>
+        <v>42689</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="11">
-        <v>42679</v>
+        <v>42689</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
@@ -1256,17 +1263,27 @@
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="28"/>
+      <c r="N2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="11">
+        <v>42689</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="28">
+        <v>5012</v>
+      </c>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1289,13 +1306,13 @@
         <v>40</v>
       </c>
       <c r="H3" s="11">
-        <v>42679</v>
+        <v>42689</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="11">
-        <v>42679</v>
+        <v>42689</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
@@ -1314,7 +1331,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="16"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1337,7 +1354,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="16"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1360,7 +1377,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="16"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1383,7 +1400,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1406,7 +1423,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1429,7 +1446,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1452,7 +1469,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1475,7 +1492,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -1498,7 +1515,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1521,7 +1538,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -1544,7 +1561,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -1567,7 +1584,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -1590,7 +1607,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1613,7 +1630,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1636,7 +1653,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1659,7 +1676,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1682,7 +1699,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1705,7 +1722,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1728,7 +1745,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1751,7 +1768,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1774,7 +1791,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1797,7 +1814,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1820,7 +1837,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1843,7 +1860,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1866,7 +1883,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1889,7 +1906,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1912,7 +1929,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1935,7 +1952,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1958,7 +1975,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1981,7 +1998,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2004,7 +2021,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2027,7 +2044,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2050,7 +2067,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2073,7 +2090,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2096,7 +2113,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2119,7 +2136,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2142,7 +2159,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2165,7 +2182,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2188,7 +2205,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2211,7 +2228,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2234,7 +2251,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2257,7 +2274,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2280,7 +2297,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2303,7 +2320,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2326,7 +2343,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2349,7 +2366,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2372,7 +2389,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2395,7 +2412,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2418,7 +2435,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2441,7 +2458,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2464,7 +2481,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2487,7 +2504,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2510,7 +2527,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2533,7 +2550,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2556,7 +2573,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2579,7 +2596,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2602,7 +2619,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2625,7 +2642,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2648,7 +2665,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2671,7 +2688,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2694,7 +2711,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2717,7 +2734,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2740,7 +2757,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2763,7 +2780,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2786,7 +2803,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2809,7 +2826,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2832,7 +2849,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2855,7 +2872,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2878,7 +2895,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2901,7 +2918,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2924,7 +2941,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2947,7 +2964,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2970,7 +2987,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2993,7 +3010,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3016,7 +3033,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3039,7 +3056,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3062,7 +3079,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3085,7 +3102,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3108,7 +3125,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3131,7 +3148,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3154,7 +3171,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3177,7 +3194,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3200,7 +3217,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3223,7 +3240,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3246,7 +3263,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3269,7 +3286,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3292,7 +3309,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3315,7 +3332,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3338,7 +3355,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3361,7 +3378,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3384,7 +3401,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3407,7 +3424,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3430,7 +3447,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3453,7 +3470,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3476,7 +3493,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3499,7 +3516,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3522,7 +3539,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3545,7 +3562,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3568,7 +3585,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3591,7 +3608,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3614,7 +3631,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3637,7 +3654,7 @@
       <c r="T104" s="7"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3657,7 +3674,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3677,7 +3694,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3697,7 +3714,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3717,7 +3734,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3737,7 +3754,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3757,7 +3774,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3777,7 +3794,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3797,7 +3814,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3817,7 +3834,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3837,7 +3854,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3857,7 +3874,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3877,7 +3894,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3897,7 +3914,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3917,7 +3934,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3937,7 +3954,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3957,7 +3974,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3977,7 +3994,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3997,7 +4014,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4017,7 +4034,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4037,7 +4054,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4057,7 +4074,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4077,7 +4094,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4097,7 +4114,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4117,7 +4134,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4137,7 +4154,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4157,7 +4174,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4177,7 +4194,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4197,7 +4214,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4217,7 +4234,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4237,7 +4254,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4257,7 +4274,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" ht="16.5">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4277,7 +4294,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4297,7 +4314,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4317,7 +4334,7 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4337,131 +4354,131 @@
       <c r="Q139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:3">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:3">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:3">
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
     </row>
@@ -4473,18 +4490,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="47" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="39" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
@@ -4497,222 +4514,222 @@
     <col min="13" max="13" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="46">
+    <row r="4" spans="1:13" ht="33">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4736,45 +4753,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4803,7 +4820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4814,7 +4831,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4825,7 +4842,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4836,7 +4853,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4847,7 +4864,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4858,7 +4875,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4869,7 +4886,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4880,7 +4897,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4891,7 +4908,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4902,7 +4919,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4913,7 +4930,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4942,14 +4959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4960,7 +4977,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +5003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4996,7 +5013,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5006,7 +5023,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5016,7 +5033,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5026,7 +5043,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5036,7 +5053,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5046,7 +5063,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5056,7 +5073,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5066,7 +5083,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5076,7 +5093,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5086,7 +5103,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5096,7 +5113,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5106,7 +5123,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5116,7 +5133,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5126,7 +5143,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5136,7 +5153,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5146,7 +5163,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5156,7 +5173,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>

--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_EQ组.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1128,10 +1140,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1321,10 +1333,18 @@
       <c r="M3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="N3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="11">
+        <v>42689</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
